--- a/etc/2023-09.xlsx
+++ b/etc/2023-09.xlsx
@@ -484,7 +484,7 @@
     <t>78</t>
   </si>
   <si>
-    <t>21971325</t>
+    <t>40628580</t>
   </si>
   <si>
     <t>79</t>
@@ -967,17 +967,17 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial Cyr"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -1210,7 +1210,7 @@
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
@@ -1223,10 +1223,13 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1235,19 +1238,19 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1256,38 +1259,44 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="59" fontId="3" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="6" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="6" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
@@ -1298,10 +1307,10 @@
     <xf numFmtId="59" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1528,17 +1537,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1565,10 +1574,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1807,12 +1816,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2089,7 +2098,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2116,10 +2125,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2386,18 +2395,18 @@
       <c r="D1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6">
         <v>21960.385</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="6">
         <v>15361.403</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="6">
         <v>30726.224</v>
       </c>
     </row>
@@ -2412,18 +2421,18 @@
       <c r="D2" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6">
         <v>3979.055</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <v>3448.289</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="6">
         <v>5295.042</v>
       </c>
     </row>
@@ -2438,18 +2447,18 @@
       <c r="D3" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6">
         <v>4079.415</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>2160.055</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>5038.272</v>
       </c>
     </row>
@@ -2464,18 +2473,18 @@
       <c r="D4" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="E4" t="s" s="3">
+      <c r="E4" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6">
         <v>2421.294</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>2722.986</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>3395.137</v>
       </c>
     </row>
@@ -2490,18 +2499,18 @@
       <c r="D5" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6">
         <v>1338.016</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>1081.074</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>1821.118</v>
       </c>
     </row>
@@ -2516,18 +2525,18 @@
       <c r="D6" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="E6" t="s" s="3">
+      <c r="E6" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6">
         <v>136.703</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>73.86799999999999</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <v>150.622</v>
       </c>
     </row>
@@ -2542,18 +2551,18 @@
       <c r="D7" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="E7" t="s" s="3">
+      <c r="E7" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6">
         <v>14004.507</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>10865.59</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>17395.584</v>
       </c>
     </row>
@@ -2568,18 +2577,18 @@
       <c r="D8" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="E8" t="s" s="3">
+      <c r="E8" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6">
         <v>2442.719</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>1574.341</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <v>2976.032</v>
       </c>
     </row>
@@ -2594,18 +2603,18 @@
       <c r="D9" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="E9" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6">
         <v>7171.029</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>7294.888</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>8477.459000000001</v>
       </c>
     </row>
@@ -2620,18 +2629,18 @@
       <c r="D10" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="E10" t="s" s="3">
+      <c r="E10" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6">
         <v>4822.341</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <v>3605.605</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="6">
         <v>6615.025</v>
       </c>
     </row>
@@ -2646,18 +2655,18 @@
       <c r="D11" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6">
         <v>1973.933</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>2351.664</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="6">
         <v>3220.461</v>
       </c>
     </row>
@@ -2672,18 +2681,18 @@
       <c r="D12" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" t="s" s="4">
         <v>25</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6">
         <v>5898.099</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="6">
         <v>5713.095</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="6">
         <v>8326.883</v>
       </c>
     </row>
@@ -2698,18 +2707,18 @@
       <c r="D13" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="E13" t="s" s="3">
+      <c r="E13" t="s" s="4">
         <v>27</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6">
         <v>7429.517</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="6">
         <v>4706.992</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="6">
         <v>7886.352</v>
       </c>
     </row>
@@ -2724,18 +2733,18 @@
       <c r="D14" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="E14" t="s" s="3">
+      <c r="E14" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6">
         <v>3447.418</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="6">
         <v>3391.703</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="6">
         <v>3946.018</v>
       </c>
     </row>
@@ -2750,18 +2759,18 @@
       <c r="D15" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="E15" t="s" s="3">
+      <c r="E15" t="s" s="4">
         <v>31</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6">
         <v>4888.515</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="6">
         <v>2244.494</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="6">
         <v>5141.259</v>
       </c>
     </row>
@@ -2776,18 +2785,18 @@
       <c r="D16" t="s" s="3">
         <v>32</v>
       </c>
-      <c r="E16" t="s" s="3">
+      <c r="E16" t="s" s="4">
         <v>33</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6">
         <v>6156.192</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="6">
         <v>3717.828</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="6">
         <v>7957.394</v>
       </c>
     </row>
@@ -2802,18 +2811,18 @@
       <c r="D17" t="s" s="3">
         <v>34</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6">
         <v>3524.196</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="6">
         <v>2108.037</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="6">
         <v>4307.644</v>
       </c>
     </row>
@@ -2828,18 +2837,18 @@
       <c r="D18" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="E18" t="s" s="3">
+      <c r="E18" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6">
         <v>7875.388</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="6">
         <v>5861.525</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="6">
         <v>10451.207</v>
       </c>
     </row>
@@ -2854,18 +2863,18 @@
       <c r="D19" t="s" s="3">
         <v>38</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6">
         <v>190.019</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="6">
         <v>73.854</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="6">
         <v>209.109</v>
       </c>
     </row>
@@ -2880,18 +2889,18 @@
       <c r="D20" t="s" s="3">
         <v>40</v>
       </c>
-      <c r="E20" t="s" s="3">
+      <c r="E20" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6">
         <v>4739.706</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="6">
         <v>4167.37</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="6">
         <v>5860.03</v>
       </c>
     </row>
@@ -2906,18 +2915,18 @@
       <c r="D21" t="s" s="3">
         <v>42</v>
       </c>
-      <c r="E21" t="s" s="3">
+      <c r="E21" t="s" s="4">
         <v>43</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6">
         <v>3775.492</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="6">
         <v>2326.11</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="6">
         <v>5602.198</v>
       </c>
     </row>
@@ -2932,18 +2941,18 @@
       <c r="D22" t="s" s="3">
         <v>44</v>
       </c>
-      <c r="E22" t="s" s="3">
+      <c r="E22" t="s" s="4">
         <v>45</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6">
         <v>3498.131</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="6">
         <v>1586.875</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="6">
         <v>3685.13</v>
       </c>
     </row>
@@ -2958,18 +2967,18 @@
       <c r="D23" t="s" s="3">
         <v>46</v>
       </c>
-      <c r="E23" t="s" s="3">
+      <c r="E23" t="s" s="4">
         <v>47</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6">
         <v>3943.466</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="6">
         <v>1834.674</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="6">
         <v>4862.238</v>
       </c>
     </row>
@@ -2984,18 +2993,18 @@
       <c r="D24" t="s" s="3">
         <v>48</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" t="s" s="4">
         <v>49</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6">
         <v>3407.57</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="6">
         <v>2762.353</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="6">
         <v>3785.761</v>
       </c>
     </row>
@@ -3010,18 +3019,18 @@
       <c r="D25" t="s" s="3">
         <v>50</v>
       </c>
-      <c r="E25" t="s" s="3">
+      <c r="E25" t="s" s="4">
         <v>51</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6">
         <v>20511.706</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="6">
         <v>16870.446</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="6">
         <v>25213.381</v>
       </c>
     </row>
@@ -3036,18 +3045,18 @@
       <c r="D26" t="s" s="3">
         <v>52</v>
       </c>
-      <c r="E26" t="s" s="3">
+      <c r="E26" t="s" s="4">
         <v>53</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6">
         <v>3497.898</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="6">
         <v>2715.942</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="6">
         <v>4761.483</v>
       </c>
     </row>
@@ -3062,18 +3071,18 @@
       <c r="D27" t="s" s="3">
         <v>54</v>
       </c>
-      <c r="E27" t="s" s="3">
+      <c r="E27" t="s" s="4">
         <v>55</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6">
         <v>2354.877</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="6">
         <v>1420.744</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="6">
         <v>3302.899</v>
       </c>
     </row>
@@ -3088,18 +3097,18 @@
       <c r="D28" t="s" s="3">
         <v>56</v>
       </c>
-      <c r="E28" t="s" s="3">
+      <c r="E28" t="s" s="4">
         <v>57</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6">
         <v>6801.453</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="6">
         <v>5327.685</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="6">
         <v>8218.464</v>
       </c>
     </row>
@@ -3114,18 +3123,18 @@
       <c r="D29" t="s" s="3">
         <v>58</v>
       </c>
-      <c r="E29" t="s" s="3">
+      <c r="E29" t="s" s="4">
         <v>59</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="5">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6">
         <v>3862.396</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="6">
         <v>2964.43</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="6">
         <v>5249.799</v>
       </c>
     </row>
@@ -3140,18 +3149,18 @@
       <c r="D30" t="s" s="3">
         <v>60</v>
       </c>
-      <c r="E30" t="s" s="3">
+      <c r="E30" t="s" s="4">
         <v>61</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="5">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6">
         <v>2595.396</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="6">
         <v>1479.316</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="6">
         <v>3408.436</v>
       </c>
     </row>
@@ -3166,18 +3175,18 @@
       <c r="D31" t="s" s="3">
         <v>62</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" t="s" s="4">
         <v>63</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="5">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6">
         <v>13474.451</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="6">
         <v>9477.388999999999</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="6">
         <v>18603.623</v>
       </c>
     </row>
@@ -3192,44 +3201,44 @@
       <c r="D32" t="s" s="3">
         <v>64</v>
       </c>
-      <c r="E32" t="s" s="3">
+      <c r="E32" t="s" s="4">
         <v>65</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="5">
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6">
         <v>3441.333</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="6">
         <v>2275.545</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="6">
         <v>4475.364</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" t="s" s="7">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s" s="7">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s" s="7">
+      <c r="A33" s="7"/>
+      <c r="B33" t="s" s="8">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s" s="8">
         <v>66</v>
       </c>
-      <c r="E33" t="s" s="8">
+      <c r="E33" t="s" s="9">
         <v>67</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10">
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11">
         <v>3724.571</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="12">
         <v>2736.058</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="13">
         <v>5025.935</v>
       </c>
     </row>
@@ -3244,18 +3253,18 @@
       <c r="D34" t="s" s="3">
         <v>68</v>
       </c>
-      <c r="E34" t="s" s="3">
+      <c r="E34" t="s" s="4">
         <v>69</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="5">
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6">
         <v>4389.416</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="6">
         <v>2723.24</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="6">
         <v>4800.543</v>
       </c>
     </row>
@@ -3270,18 +3279,18 @@
       <c r="D35" t="s" s="3">
         <v>70</v>
       </c>
-      <c r="E35" t="s" s="3">
+      <c r="E35" t="s" s="4">
         <v>71</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="5">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="6">
         <v>1827.674</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="6">
         <v>2762.341</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="6">
         <v>3270.204</v>
       </c>
     </row>
@@ -3296,18 +3305,18 @@
       <c r="D36" t="s" s="3">
         <v>72</v>
       </c>
-      <c r="E36" t="s" s="3">
+      <c r="E36" t="s" s="4">
         <v>73</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="5">
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6">
         <v>3487.304</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="6">
         <v>2554.44</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="6">
         <v>4798.448</v>
       </c>
     </row>
@@ -3322,18 +3331,18 @@
       <c r="D37" t="s" s="3">
         <v>74</v>
       </c>
-      <c r="E37" t="s" s="3">
+      <c r="E37" t="s" s="4">
         <v>75</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="5">
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="6">
         <v>17138.092</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="6">
         <v>16874.501</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="6">
         <v>25522.972</v>
       </c>
     </row>
@@ -3348,18 +3357,18 @@
       <c r="D38" t="s" s="3">
         <v>76</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="4">
         <v>77</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="5">
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="6">
         <v>2854.778</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="6">
         <v>2520.612</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="6">
         <v>4183.453</v>
       </c>
     </row>
@@ -3374,45 +3383,45 @@
       <c r="D39" t="s" s="3">
         <v>78</v>
       </c>
-      <c r="E39" t="s" s="3">
+      <c r="E39" t="s" s="4">
         <v>79</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="5">
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="6">
         <v>3376.558</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="6">
         <v>2279.758</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="6">
         <v>3462.944</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" t="s" s="14">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s" s="14">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s" s="14">
+      <c r="A40" s="14"/>
+      <c r="B40" t="s" s="15">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s" s="15">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s" s="15">
         <v>80</v>
       </c>
-      <c r="E40" t="s" s="14">
+      <c r="E40" t="s" s="16">
         <v>81</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="16">
-        <v>5860.891</v>
-      </c>
-      <c r="I40" s="16">
-        <v>3321.105</v>
-      </c>
-      <c r="J40" s="17">
-        <v>6720.251</v>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18">
+        <v>7874.912</v>
+      </c>
+      <c r="I40" s="18">
+        <v>4382.003</v>
+      </c>
+      <c r="J40" s="19">
+        <v>6720.51</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -3426,18 +3435,18 @@
       <c r="D41" t="s" s="3">
         <v>82</v>
       </c>
-      <c r="E41" t="s" s="3">
+      <c r="E41" t="s" s="4">
         <v>83</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="5">
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="6">
         <v>2894.96</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="6">
         <v>1657.662</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="6">
         <v>3610.286</v>
       </c>
     </row>
@@ -3452,18 +3461,18 @@
       <c r="D42" t="s" s="3">
         <v>84</v>
       </c>
-      <c r="E42" t="s" s="3">
+      <c r="E42" t="s" s="4">
         <v>85</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="5">
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="6">
         <v>5422.589</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="6">
         <v>2476.212</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="6">
         <v>6224.198</v>
       </c>
     </row>
@@ -3478,18 +3487,18 @@
       <c r="D43" t="s" s="3">
         <v>86</v>
       </c>
-      <c r="E43" t="s" s="3">
+      <c r="E43" t="s" s="4">
         <v>87</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="5">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="6">
         <v>2171.467</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="6">
         <v>2715.003</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="6">
         <v>3276.898</v>
       </c>
     </row>
@@ -3504,18 +3513,18 @@
       <c r="D44" t="s" s="3">
         <v>88</v>
       </c>
-      <c r="E44" t="s" s="3">
+      <c r="E44" t="s" s="4">
         <v>89</v>
       </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="5">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="6">
         <v>2830.986</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="6">
         <v>2355.3</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="6">
         <v>4039.545</v>
       </c>
     </row>
@@ -3530,44 +3539,44 @@
       <c r="D45" t="s" s="3">
         <v>90</v>
       </c>
-      <c r="E45" t="s" s="3">
+      <c r="E45" t="s" s="4">
         <v>91</v>
       </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="5">
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="6">
         <v>1136.386</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="6">
         <v>1856.964</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="6">
         <v>2008.503</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
-      <c r="A46" s="6"/>
-      <c r="B46" t="s" s="7">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s" s="7">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s" s="7">
+      <c r="A46" s="7"/>
+      <c r="B46" t="s" s="8">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s" s="8">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="E46" t="s" s="18">
+      <c r="E46" t="s" s="20">
         <v>93</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10">
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="11">
         <v>6229.164</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="12">
         <v>3586.581</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="13">
         <v>7405.472</v>
       </c>
     </row>
@@ -3582,18 +3591,18 @@
       <c r="D47" t="s" s="3">
         <v>94</v>
       </c>
-      <c r="E47" t="s" s="3">
+      <c r="E47" t="s" s="4">
         <v>95</v>
       </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="5">
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="6">
         <v>2180.358</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="6">
         <v>1779.009</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="6">
         <v>3238.803</v>
       </c>
     </row>
@@ -3608,18 +3617,18 @@
       <c r="D48" t="s" s="3">
         <v>96</v>
       </c>
-      <c r="E48" t="s" s="3">
+      <c r="E48" t="s" s="4">
         <v>97</v>
       </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="5">
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="6">
         <v>7578.7</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="6">
         <v>4702.164</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="6">
         <v>9518.621999999999</v>
       </c>
     </row>
@@ -3634,18 +3643,18 @@
       <c r="D49" t="s" s="3">
         <v>98</v>
       </c>
-      <c r="E49" t="s" s="3">
+      <c r="E49" t="s" s="4">
         <v>99</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="5">
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="6">
         <v>13747.451</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="6">
         <v>9862.332</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="6">
         <v>16848.587</v>
       </c>
     </row>
@@ -3660,18 +3669,18 @@
       <c r="D50" t="s" s="3">
         <v>100</v>
       </c>
-      <c r="E50" t="s" s="3">
+      <c r="E50" t="s" s="4">
         <v>101</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="5">
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="6">
         <v>1838.695</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50" s="6">
         <v>1365.242</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="6">
         <v>2455.713</v>
       </c>
     </row>
@@ -3686,18 +3695,18 @@
       <c r="D51" t="s" s="3">
         <v>102</v>
       </c>
-      <c r="E51" t="s" s="3">
+      <c r="E51" t="s" s="4">
         <v>103</v>
       </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="5">
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="6">
         <v>3030.868</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51" s="6">
         <v>1493.952</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="6">
         <v>3775.273</v>
       </c>
     </row>
@@ -3712,18 +3721,18 @@
       <c r="D52" t="s" s="3">
         <v>104</v>
       </c>
-      <c r="E52" t="s" s="3">
+      <c r="E52" t="s" s="4">
         <v>105</v>
       </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="5">
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="6">
         <v>5421.765</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52" s="6">
         <v>5002.752</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="6">
         <v>7205.075</v>
       </c>
     </row>
@@ -3738,18 +3747,18 @@
       <c r="D53" t="s" s="3">
         <v>106</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="4">
         <v>107</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="5">
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="6">
         <v>4204.616</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="6">
         <v>3188.59</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="6">
         <v>5506.77</v>
       </c>
     </row>
@@ -3764,18 +3773,18 @@
       <c r="D54" t="s" s="3">
         <v>108</v>
       </c>
-      <c r="E54" t="s" s="3">
+      <c r="E54" t="s" s="4">
         <v>109</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="5">
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="6">
         <v>4685.585</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I54" s="6">
         <v>3659.866</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="6">
         <v>5724.881</v>
       </c>
     </row>
@@ -3790,18 +3799,18 @@
       <c r="D55" t="s" s="3">
         <v>110</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="E55" t="s" s="4">
         <v>111</v>
       </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="5">
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="6">
         <v>8365.102000000001</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55" s="6">
         <v>7923.471</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55" s="6">
         <v>11410.42</v>
       </c>
     </row>
@@ -3816,18 +3825,18 @@
       <c r="D56" t="s" s="3">
         <v>112</v>
       </c>
-      <c r="E56" t="s" s="3">
+      <c r="E56" t="s" s="4">
         <v>113</v>
       </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="5">
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="6">
         <v>4219.751</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="6">
         <v>3349.221</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="6">
         <v>5507.372</v>
       </c>
     </row>
@@ -3842,18 +3851,18 @@
       <c r="D57" t="s" s="3">
         <v>114</v>
       </c>
-      <c r="E57" t="s" s="3">
+      <c r="E57" t="s" s="4">
         <v>115</v>
       </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="5">
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="6">
         <v>4236.996</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="6">
         <v>4623.151</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="6">
         <v>5405.377</v>
       </c>
     </row>
@@ -3868,18 +3877,18 @@
       <c r="D58" t="s" s="3">
         <v>116</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" t="s" s="4">
         <v>117</v>
       </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="5">
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="6">
         <v>4073.219</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58" s="6">
         <v>3255.93</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="6">
         <v>5631.907</v>
       </c>
     </row>
@@ -3894,18 +3903,18 @@
       <c r="D59" t="s" s="3">
         <v>118</v>
       </c>
-      <c r="E59" t="s" s="3">
+      <c r="E59" t="s" s="4">
         <v>119</v>
       </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="5">
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="6">
         <v>2730.166</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I59" s="6">
         <v>2318.047</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" s="6">
         <v>3178.766</v>
       </c>
     </row>
@@ -3920,18 +3929,18 @@
       <c r="D60" t="s" s="3">
         <v>120</v>
       </c>
-      <c r="E60" t="s" s="3">
+      <c r="E60" t="s" s="4">
         <v>121</v>
       </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="5">
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="6">
         <v>13946.657</v>
       </c>
-      <c r="I60" s="5">
+      <c r="I60" s="6">
         <v>7964.187</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60" s="6">
         <v>16254.774</v>
       </c>
     </row>
@@ -3946,18 +3955,18 @@
       <c r="D61" t="s" s="3">
         <v>122</v>
       </c>
-      <c r="E61" t="s" s="3">
+      <c r="E61" t="s" s="4">
         <v>123</v>
       </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="5">
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="6">
         <v>9205.280000000001</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I61" s="6">
         <v>4963.045</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="6">
         <v>11526.404</v>
       </c>
     </row>
@@ -3972,18 +3981,18 @@
       <c r="D62" t="s" s="3">
         <v>124</v>
       </c>
-      <c r="E62" t="s" s="3">
+      <c r="E62" t="s" s="4">
         <v>125</v>
       </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="5">
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="6">
         <v>2886.432</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I62" s="6">
         <v>1450.59</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62" s="6">
         <v>3639.959</v>
       </c>
     </row>
@@ -3998,18 +4007,18 @@
       <c r="D63" t="s" s="3">
         <v>126</v>
       </c>
-      <c r="E63" t="s" s="3">
+      <c r="E63" t="s" s="4">
         <v>127</v>
       </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="5">
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="6">
         <v>4388.059</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63" s="6">
         <v>2029.331</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="6">
         <v>5451.464</v>
       </c>
     </row>
@@ -4024,18 +4033,18 @@
       <c r="D64" t="s" s="3">
         <v>128</v>
       </c>
-      <c r="E64" t="s" s="3">
+      <c r="E64" t="s" s="4">
         <v>129</v>
       </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="5">
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="6">
         <v>6577.809</v>
       </c>
-      <c r="I64" s="5">
+      <c r="I64" s="6">
         <v>4525.6</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J64" s="6">
         <v>8114.5</v>
       </c>
     </row>
@@ -4050,18 +4059,18 @@
       <c r="D65" t="s" s="3">
         <v>130</v>
       </c>
-      <c r="E65" t="s" s="3">
+      <c r="E65" t="s" s="4">
         <v>131</v>
       </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="5">
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="6">
         <v>2607.88</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65" s="6">
         <v>1817.605</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65" s="6">
         <v>3314.35</v>
       </c>
     </row>
@@ -4076,18 +4085,18 @@
       <c r="D66" t="s" s="3">
         <v>132</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="4">
         <v>133</v>
       </c>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="5">
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="6">
         <v>53.733</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I66" s="6">
         <v>58.305</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J66" s="6">
         <v>73.90600000000001</v>
       </c>
     </row>
@@ -4102,18 +4111,18 @@
       <c r="D67" t="s" s="3">
         <v>134</v>
       </c>
-      <c r="E67" t="s" s="3">
+      <c r="E67" t="s" s="4">
         <v>135</v>
       </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="5">
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="6">
         <v>4588.535</v>
       </c>
-      <c r="I67" s="5">
+      <c r="I67" s="6">
         <v>3424.887</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67" s="6">
         <v>6074.273</v>
       </c>
     </row>
@@ -4128,18 +4137,18 @@
       <c r="D68" t="s" s="3">
         <v>136</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="4">
         <v>137</v>
       </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="5">
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="6">
         <v>3578.501</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I68" s="6">
         <v>2852.004</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J68" s="6">
         <v>5172.625</v>
       </c>
     </row>
@@ -4154,18 +4163,18 @@
       <c r="D69" t="s" s="3">
         <v>138</v>
       </c>
-      <c r="E69" t="s" s="3">
+      <c r="E69" t="s" s="4">
         <v>139</v>
       </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="5">
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="6">
         <v>1496.808</v>
       </c>
-      <c r="I69" s="5">
+      <c r="I69" s="6">
         <v>902.346</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J69" s="6">
         <v>2033.641</v>
       </c>
     </row>
@@ -4180,18 +4189,18 @@
       <c r="D70" t="s" s="3">
         <v>140</v>
       </c>
-      <c r="E70" t="s" s="3">
+      <c r="E70" t="s" s="4">
         <v>141</v>
       </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="5">
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="6">
         <v>2678.616</v>
       </c>
-      <c r="I70" s="5">
+      <c r="I70" s="6">
         <v>3239.755</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J70" s="6">
         <v>4007.332</v>
       </c>
     </row>
@@ -4206,18 +4215,18 @@
       <c r="D71" t="s" s="3">
         <v>142</v>
       </c>
-      <c r="E71" t="s" s="3">
+      <c r="E71" t="s" s="4">
         <v>143</v>
       </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="5">
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="6">
         <v>2458.008</v>
       </c>
-      <c r="I71" s="5">
+      <c r="I71" s="6">
         <v>1884.894</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="6">
         <v>3488.81</v>
       </c>
     </row>
@@ -4232,18 +4241,18 @@
       <c r="D72" t="s" s="3">
         <v>144</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" t="s" s="4">
         <v>145</v>
       </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="5">
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="6">
         <v>2512.096</v>
       </c>
-      <c r="I72" s="5">
+      <c r="I72" s="6">
         <v>2823.733</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J72" s="6">
         <v>3478.573</v>
       </c>
     </row>
@@ -4258,18 +4267,18 @@
       <c r="D73" t="s" s="3">
         <v>146</v>
       </c>
-      <c r="E73" t="s" s="3">
+      <c r="E73" t="s" s="4">
         <v>147</v>
       </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="5">
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="6">
         <v>4186.633</v>
       </c>
-      <c r="I73" s="5">
+      <c r="I73" s="6">
         <v>3014.577</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J73" s="6">
         <v>5531.687</v>
       </c>
     </row>
@@ -4284,18 +4293,18 @@
       <c r="D74" t="s" s="3">
         <v>148</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" t="s" s="4">
         <v>149</v>
       </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="5">
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="6">
         <v>5729.31</v>
       </c>
-      <c r="I74" s="5">
+      <c r="I74" s="6">
         <v>5431.493</v>
       </c>
-      <c r="J74" s="5">
+      <c r="J74" s="6">
         <v>6778.793</v>
       </c>
     </row>
@@ -4310,18 +4319,18 @@
       <c r="D75" t="s" s="3">
         <v>150</v>
       </c>
-      <c r="E75" t="s" s="3">
+      <c r="E75" t="s" s="4">
         <v>151</v>
       </c>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="5">
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="6">
         <v>3804.511</v>
       </c>
-      <c r="I75" s="5">
+      <c r="I75" s="6">
         <v>2373.552</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J75" s="6">
         <v>4658.034</v>
       </c>
     </row>
@@ -4336,18 +4345,18 @@
       <c r="D76" t="s" s="3">
         <v>152</v>
       </c>
-      <c r="E76" t="s" s="3">
+      <c r="E76" t="s" s="4">
         <v>153</v>
       </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="5">
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="6">
         <v>3238.31</v>
       </c>
-      <c r="I76" s="5">
+      <c r="I76" s="6">
         <v>2682.235</v>
       </c>
-      <c r="J76" s="5">
+      <c r="J76" s="6">
         <v>4635.855</v>
       </c>
     </row>
@@ -4362,44 +4371,44 @@
       <c r="D77" t="s" s="3">
         <v>154</v>
       </c>
-      <c r="E77" t="s" s="3">
+      <c r="E77" t="s" s="4">
         <v>155</v>
       </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="5">
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="6">
         <v>11363.314</v>
       </c>
-      <c r="I77" s="5">
+      <c r="I77" s="6">
         <v>12559.743</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J77" s="6">
         <v>15347.166</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
-      <c r="A78" s="13"/>
-      <c r="B78" t="s" s="14">
-        <v>0</v>
-      </c>
-      <c r="C78" t="s" s="14">
-        <v>1</v>
-      </c>
-      <c r="D78" t="s" s="14">
+      <c r="A78" s="14"/>
+      <c r="B78" t="s" s="15">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s" s="15">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s" s="15">
         <v>156</v>
       </c>
-      <c r="E78" t="s" s="3">
+      <c r="E78" t="s" s="21">
         <v>157</v>
       </c>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="17">
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="19">
         <v>3681.095</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I78" s="19">
         <v>1329.915</v>
       </c>
-      <c r="J78" s="17">
+      <c r="J78" s="19">
         <v>0</v>
       </c>
     </row>
@@ -4414,18 +4423,18 @@
       <c r="D79" t="s" s="3">
         <v>158</v>
       </c>
-      <c r="E79" t="s" s="3">
+      <c r="E79" t="s" s="4">
         <v>159</v>
       </c>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="5">
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="6">
         <v>4312.888</v>
       </c>
-      <c r="I79" s="5">
+      <c r="I79" s="6">
         <v>2773.384</v>
       </c>
-      <c r="J79" s="5">
+      <c r="J79" s="6">
         <v>6174.606</v>
       </c>
     </row>
@@ -4440,18 +4449,18 @@
       <c r="D80" t="s" s="3">
         <v>160</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" t="s" s="4">
         <v>161</v>
       </c>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="5">
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="6">
         <v>3698.823</v>
       </c>
-      <c r="I80" s="5">
+      <c r="I80" s="6">
         <v>3339.055</v>
       </c>
-      <c r="J80" s="5">
+      <c r="J80" s="6">
         <v>4265.74</v>
       </c>
     </row>
@@ -4466,18 +4475,18 @@
       <c r="D81" t="s" s="3">
         <v>162</v>
       </c>
-      <c r="E81" t="s" s="3">
+      <c r="E81" t="s" s="4">
         <v>163</v>
       </c>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="5">
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="6">
         <v>2242.375</v>
       </c>
-      <c r="I81" s="5">
+      <c r="I81" s="6">
         <v>2513.25</v>
       </c>
-      <c r="J81" s="5">
+      <c r="J81" s="6">
         <v>3011.149</v>
       </c>
     </row>
@@ -4492,18 +4501,18 @@
       <c r="D82" t="s" s="3">
         <v>164</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="4">
         <v>165</v>
       </c>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="5">
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="6">
         <v>7772.669</v>
       </c>
-      <c r="I82" s="5">
+      <c r="I82" s="6">
         <v>3759.508</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="6">
         <v>11700.412</v>
       </c>
     </row>
@@ -4518,18 +4527,18 @@
       <c r="D83" t="s" s="3">
         <v>166</v>
       </c>
-      <c r="E83" t="s" s="3">
+      <c r="E83" t="s" s="4">
         <v>167</v>
       </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="5">
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="6">
         <v>2432.882</v>
       </c>
-      <c r="I83" s="5">
+      <c r="I83" s="6">
         <v>2376.101</v>
       </c>
-      <c r="J83" s="5">
+      <c r="J83" s="6">
         <v>3566.131</v>
       </c>
     </row>
@@ -4544,18 +4553,18 @@
       <c r="D84" t="s" s="3">
         <v>168</v>
       </c>
-      <c r="E84" t="s" s="3">
+      <c r="E84" t="s" s="4">
         <v>169</v>
       </c>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="5">
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="6">
         <v>1914.687</v>
       </c>
-      <c r="I84" s="5">
+      <c r="I84" s="6">
         <v>1663.286</v>
       </c>
-      <c r="J84" s="5">
+      <c r="J84" s="6">
         <v>2799.882</v>
       </c>
     </row>
@@ -4570,18 +4579,18 @@
       <c r="D85" t="s" s="3">
         <v>170</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="4">
         <v>171</v>
       </c>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="5">
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="6">
         <v>19664.747</v>
       </c>
-      <c r="I85" s="5">
+      <c r="I85" s="6">
         <v>17557.118</v>
       </c>
-      <c r="J85" s="5">
+      <c r="J85" s="6">
         <v>25256.466</v>
       </c>
     </row>
@@ -4596,44 +4605,44 @@
       <c r="D86" t="s" s="3">
         <v>172</v>
       </c>
-      <c r="E86" t="s" s="3">
+      <c r="E86" t="s" s="4">
         <v>173</v>
       </c>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="5">
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="6">
         <v>2403.274</v>
       </c>
-      <c r="I86" s="5">
+      <c r="I86" s="6">
         <v>1751.305</v>
       </c>
-      <c r="J86" s="5">
+      <c r="J86" s="6">
         <v>3016.027</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
-      <c r="A87" s="6"/>
-      <c r="B87" t="s" s="7">
-        <v>0</v>
-      </c>
-      <c r="C87" t="s" s="7">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s" s="7">
+      <c r="A87" s="7"/>
+      <c r="B87" t="s" s="8">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s" s="8">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s" s="8">
         <v>174</v>
       </c>
-      <c r="E87" t="s" s="18">
+      <c r="E87" t="s" s="20">
         <v>175</v>
       </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="10">
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="11">
         <v>2494.15</v>
       </c>
-      <c r="I87" s="11">
+      <c r="I87" s="12">
         <v>1630.87</v>
       </c>
-      <c r="J87" s="12">
+      <c r="J87" s="13">
         <v>3252.16</v>
       </c>
     </row>
@@ -4648,44 +4657,44 @@
       <c r="D88" t="s" s="3">
         <v>176</v>
       </c>
-      <c r="E88" t="s" s="3">
+      <c r="E88" t="s" s="4">
         <v>177</v>
       </c>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="5">
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="6">
         <v>1921.891</v>
       </c>
-      <c r="I88" s="5">
+      <c r="I88" s="6">
         <v>1372.86</v>
       </c>
-      <c r="J88" s="5">
+      <c r="J88" s="6">
         <v>2775.886</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
-      <c r="A89" s="6"/>
-      <c r="B89" t="s" s="7">
-        <v>0</v>
-      </c>
-      <c r="C89" t="s" s="7">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s" s="7">
+      <c r="A89" s="7"/>
+      <c r="B89" t="s" s="8">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s" s="8">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s" s="8">
         <v>178</v>
       </c>
-      <c r="E89" t="s" s="18">
+      <c r="E89" t="s" s="20">
         <v>179</v>
       </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="10">
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="11">
         <v>2988.006</v>
       </c>
-      <c r="I89" s="11">
+      <c r="I89" s="12">
         <v>2170.438</v>
       </c>
-      <c r="J89" s="12">
+      <c r="J89" s="13">
         <v>3616.057</v>
       </c>
     </row>
@@ -4700,18 +4709,18 @@
       <c r="D90" t="s" s="3">
         <v>180</v>
       </c>
-      <c r="E90" t="s" s="3">
+      <c r="E90" t="s" s="4">
         <v>181</v>
       </c>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="5">
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="6">
         <v>6921.161</v>
       </c>
-      <c r="I90" s="5">
+      <c r="I90" s="6">
         <v>3914.99</v>
       </c>
-      <c r="J90" s="5">
+      <c r="J90" s="6">
         <v>8033.03</v>
       </c>
     </row>
@@ -4726,18 +4735,18 @@
       <c r="D91" t="s" s="3">
         <v>182</v>
       </c>
-      <c r="E91" t="s" s="3">
+      <c r="E91" t="s" s="4">
         <v>183</v>
       </c>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="5">
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="6">
         <v>2623.647</v>
       </c>
-      <c r="I91" s="5">
+      <c r="I91" s="6">
         <v>2578.779</v>
       </c>
-      <c r="J91" s="5">
+      <c r="J91" s="6">
         <v>3298.622</v>
       </c>
     </row>
@@ -4752,18 +4761,18 @@
       <c r="D92" t="s" s="3">
         <v>184</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" t="s" s="4">
         <v>185</v>
       </c>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="5">
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="6">
         <v>803.6130000000001</v>
       </c>
-      <c r="I92" s="5">
+      <c r="I92" s="6">
         <v>719.75</v>
       </c>
-      <c r="J92" s="5">
+      <c r="J92" s="6">
         <v>1050.042</v>
       </c>
     </row>
@@ -4778,18 +4787,18 @@
       <c r="D93" t="s" s="3">
         <v>186</v>
       </c>
-      <c r="E93" t="s" s="3">
+      <c r="E93" t="s" s="4">
         <v>187</v>
       </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="5">
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="6">
         <v>2648</v>
       </c>
-      <c r="I93" s="5">
+      <c r="I93" s="6">
         <v>2414.141</v>
       </c>
-      <c r="J93" s="5">
+      <c r="J93" s="6">
         <v>3730.498</v>
       </c>
     </row>
@@ -4804,18 +4813,18 @@
       <c r="D94" t="s" s="3">
         <v>188</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="4">
         <v>189</v>
       </c>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="5">
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="6">
         <v>1936.005</v>
       </c>
-      <c r="I94" s="5">
+      <c r="I94" s="6">
         <v>1571.11</v>
       </c>
-      <c r="J94" s="5">
+      <c r="J94" s="6">
         <v>2654.289</v>
       </c>
     </row>
@@ -4830,18 +4839,18 @@
       <c r="D95" t="s" s="3">
         <v>190</v>
       </c>
-      <c r="E95" t="s" s="3">
+      <c r="E95" t="s" s="4">
         <v>191</v>
       </c>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="5">
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="6">
         <v>6085.597</v>
       </c>
-      <c r="I95" s="5">
+      <c r="I95" s="6">
         <v>3956.817</v>
       </c>
-      <c r="J95" s="5">
+      <c r="J95" s="6">
         <v>7752.172</v>
       </c>
     </row>
@@ -4856,18 +4865,18 @@
       <c r="D96" t="s" s="3">
         <v>192</v>
       </c>
-      <c r="E96" t="s" s="3">
+      <c r="E96" t="s" s="4">
         <v>193</v>
       </c>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="5">
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="6">
         <v>3835.337</v>
       </c>
-      <c r="I96" s="5">
+      <c r="I96" s="6">
         <v>2667.429</v>
       </c>
-      <c r="J96" s="5">
+      <c r="J96" s="6">
         <v>5675.587</v>
       </c>
     </row>
@@ -4882,18 +4891,18 @@
       <c r="D97" t="s" s="3">
         <v>194</v>
       </c>
-      <c r="E97" t="s" s="3">
+      <c r="E97" t="s" s="4">
         <v>195</v>
       </c>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="5">
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="6">
         <v>4555.653</v>
       </c>
-      <c r="I97" s="5">
+      <c r="I97" s="6">
         <v>1786.685</v>
       </c>
-      <c r="J97" s="5">
+      <c r="J97" s="6">
         <v>4600.935</v>
       </c>
     </row>
@@ -4908,18 +4917,18 @@
       <c r="D98" t="s" s="3">
         <v>196</v>
       </c>
-      <c r="E98" t="s" s="3">
+      <c r="E98" t="s" s="4">
         <v>197</v>
       </c>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="5">
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="6">
         <v>4782.091</v>
       </c>
-      <c r="I98" s="5">
+      <c r="I98" s="6">
         <v>2203.526</v>
       </c>
-      <c r="J98" s="5">
+      <c r="J98" s="6">
         <v>6050.914</v>
       </c>
     </row>
@@ -4934,18 +4943,18 @@
       <c r="D99" t="s" s="3">
         <v>198</v>
       </c>
-      <c r="E99" t="s" s="3">
+      <c r="E99" t="s" s="4">
         <v>199</v>
       </c>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="5">
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="6">
         <v>2332.851</v>
       </c>
-      <c r="I99" s="5">
+      <c r="I99" s="6">
         <v>1897.186</v>
       </c>
-      <c r="J99" s="5">
+      <c r="J99" s="6">
         <v>3064.912</v>
       </c>
     </row>
@@ -4960,18 +4969,18 @@
       <c r="D100" t="s" s="3">
         <v>200</v>
       </c>
-      <c r="E100" t="s" s="3">
+      <c r="E100" t="s" s="4">
         <v>201</v>
       </c>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="5">
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="6">
         <v>4282.938</v>
       </c>
-      <c r="I100" s="5">
+      <c r="I100" s="6">
         <v>1989.465</v>
       </c>
-      <c r="J100" s="5">
+      <c r="J100" s="6">
         <v>5587.63</v>
       </c>
     </row>
@@ -4986,18 +4995,18 @@
       <c r="D101" t="s" s="3">
         <v>202</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="4">
         <v>203</v>
       </c>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="5">
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="6">
         <v>2067.092</v>
       </c>
-      <c r="I101" s="5">
+      <c r="I101" s="6">
         <v>1456.669</v>
       </c>
-      <c r="J101" s="5">
+      <c r="J101" s="6">
         <v>2507.304</v>
       </c>
     </row>
@@ -5012,18 +5021,18 @@
       <c r="D102" t="s" s="3">
         <v>204</v>
       </c>
-      <c r="E102" t="s" s="3">
+      <c r="E102" t="s" s="4">
         <v>205</v>
       </c>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="5">
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="6">
         <v>2019.308</v>
       </c>
-      <c r="I102" s="5">
+      <c r="I102" s="6">
         <v>1689.259</v>
       </c>
-      <c r="J102" s="5">
+      <c r="J102" s="6">
         <v>2625.495</v>
       </c>
     </row>
@@ -5038,18 +5047,18 @@
       <c r="D103" t="s" s="3">
         <v>206</v>
       </c>
-      <c r="E103" t="s" s="3">
+      <c r="E103" t="s" s="4">
         <v>207</v>
       </c>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="5">
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="6">
         <v>3573.154</v>
       </c>
-      <c r="I103" s="5">
+      <c r="I103" s="6">
         <v>2610.6</v>
       </c>
-      <c r="J103" s="5">
+      <c r="J103" s="6">
         <v>4452.382</v>
       </c>
     </row>
@@ -5064,45 +5073,45 @@
       <c r="D104" t="s" s="3">
         <v>208</v>
       </c>
-      <c r="E104" t="s" s="3">
+      <c r="E104" t="s" s="4">
         <v>209</v>
       </c>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="5">
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="6">
         <v>8215.950999999999</v>
       </c>
-      <c r="I104" s="5">
+      <c r="I104" s="6">
         <v>3846.148</v>
       </c>
-      <c r="J104" s="5">
+      <c r="J104" s="6">
         <v>9014.246999999999</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
-      <c r="A105" s="6"/>
-      <c r="B105" t="s" s="7">
-        <v>0</v>
-      </c>
-      <c r="C105" t="s" s="7">
-        <v>1</v>
-      </c>
-      <c r="D105" t="s" s="7">
+      <c r="A105" s="7"/>
+      <c r="B105" t="s" s="8">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s" s="8">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s" s="8">
         <v>210</v>
       </c>
-      <c r="E105" t="s" s="18">
+      <c r="E105" t="s" s="20">
         <v>211</v>
       </c>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="19">
-        <v>3233.082</v>
-      </c>
-      <c r="I105" s="20">
-        <v>2413.17</v>
-      </c>
-      <c r="J105" s="21">
-        <v>4100.821</v>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="22">
+        <v>3824.972</v>
+      </c>
+      <c r="I105" s="23">
+        <v>3086.28</v>
+      </c>
+      <c r="J105" s="24">
+        <v>4826.122</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -5116,18 +5125,18 @@
       <c r="D106" t="s" s="3">
         <v>212</v>
       </c>
-      <c r="E106" t="s" s="3">
+      <c r="E106" t="s" s="4">
         <v>213</v>
       </c>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="5">
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="6">
         <v>61.48</v>
       </c>
-      <c r="I106" s="5">
+      <c r="I106" s="6">
         <v>28.27</v>
       </c>
-      <c r="J106" s="5">
+      <c r="J106" s="6">
         <v>80.34699999999999</v>
       </c>
     </row>
@@ -5142,18 +5151,18 @@
       <c r="D107" t="s" s="3">
         <v>214</v>
       </c>
-      <c r="E107" t="s" s="3">
+      <c r="E107" t="s" s="4">
         <v>215</v>
       </c>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="5">
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="6">
         <v>2382.58</v>
       </c>
-      <c r="I107" s="5">
+      <c r="I107" s="6">
         <v>3080.768</v>
       </c>
-      <c r="J107" s="5">
+      <c r="J107" s="6">
         <v>2947.068</v>
       </c>
     </row>
@@ -5168,18 +5177,18 @@
       <c r="D108" t="s" s="3">
         <v>216</v>
       </c>
-      <c r="E108" t="s" s="3">
+      <c r="E108" t="s" s="4">
         <v>217</v>
       </c>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="5">
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="6">
         <v>362.937</v>
       </c>
-      <c r="I108" s="5">
+      <c r="I108" s="6">
         <v>16.789</v>
       </c>
-      <c r="J108" s="5">
+      <c r="J108" s="6">
         <v>1150.677</v>
       </c>
     </row>
@@ -5194,18 +5203,18 @@
       <c r="D109" t="s" s="3">
         <v>218</v>
       </c>
-      <c r="E109" t="s" s="3">
+      <c r="E109" t="s" s="4">
         <v>219</v>
       </c>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="5">
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="6">
         <v>4956.202</v>
       </c>
-      <c r="I109" s="5">
+      <c r="I109" s="6">
         <v>3805.315</v>
       </c>
-      <c r="J109" s="5">
+      <c r="J109" s="6">
         <v>5974.229</v>
       </c>
     </row>
@@ -5220,18 +5229,18 @@
       <c r="D110" t="s" s="3">
         <v>220</v>
       </c>
-      <c r="E110" t="s" s="3">
+      <c r="E110" t="s" s="4">
         <v>221</v>
       </c>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="5">
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="6">
         <v>2624.56</v>
       </c>
-      <c r="I110" s="5">
+      <c r="I110" s="6">
         <v>2596.499</v>
       </c>
-      <c r="J110" s="5">
+      <c r="J110" s="6">
         <v>3741.493</v>
       </c>
     </row>
@@ -5246,18 +5255,18 @@
       <c r="D111" t="s" s="3">
         <v>222</v>
       </c>
-      <c r="E111" t="s" s="3">
+      <c r="E111" t="s" s="4">
         <v>223</v>
       </c>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="5">
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="6">
         <v>2525.745</v>
       </c>
-      <c r="I111" s="5">
+      <c r="I111" s="6">
         <v>2914.394</v>
       </c>
-      <c r="J111" s="5">
+      <c r="J111" s="6">
         <v>4983.641</v>
       </c>
     </row>
@@ -5272,18 +5281,18 @@
       <c r="D112" t="s" s="3">
         <v>224</v>
       </c>
-      <c r="E112" t="s" s="3">
+      <c r="E112" t="s" s="4">
         <v>225</v>
       </c>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="5">
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="6">
         <v>7959.118</v>
       </c>
-      <c r="I112" s="5">
+      <c r="I112" s="6">
         <v>3909.471</v>
       </c>
-      <c r="J112" s="5">
+      <c r="J112" s="6">
         <v>9898.869000000001</v>
       </c>
     </row>
@@ -5298,18 +5307,18 @@
       <c r="D113" t="s" s="3">
         <v>226</v>
       </c>
-      <c r="E113" t="s" s="3">
+      <c r="E113" t="s" s="4">
         <v>227</v>
       </c>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="5">
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="6">
         <v>6762.128</v>
       </c>
-      <c r="I113" s="5">
+      <c r="I113" s="6">
         <v>6215.53</v>
       </c>
-      <c r="J113" s="5">
+      <c r="J113" s="6">
         <v>8165.542</v>
       </c>
     </row>
@@ -5324,18 +5333,18 @@
       <c r="D114" t="s" s="3">
         <v>228</v>
       </c>
-      <c r="E114" t="s" s="3">
+      <c r="E114" t="s" s="4">
         <v>229</v>
       </c>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="5">
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="6">
         <v>8180.778</v>
       </c>
-      <c r="I114" s="5">
+      <c r="I114" s="6">
         <v>4116.841</v>
       </c>
-      <c r="J114" s="5">
+      <c r="J114" s="6">
         <v>11107.876</v>
       </c>
     </row>
@@ -5350,18 +5359,18 @@
       <c r="D115" t="s" s="3">
         <v>230</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="4">
         <v>231</v>
       </c>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="5">
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="6">
         <v>6562.648</v>
       </c>
-      <c r="I115" s="5">
+      <c r="I115" s="6">
         <v>5171.008</v>
       </c>
-      <c r="J115" s="5">
+      <c r="J115" s="6">
         <v>8890.623</v>
       </c>
     </row>
@@ -5376,18 +5385,18 @@
       <c r="D116" t="s" s="3">
         <v>232</v>
       </c>
-      <c r="E116" t="s" s="3">
+      <c r="E116" t="s" s="4">
         <v>233</v>
       </c>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="5">
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="6">
         <v>3097.279</v>
       </c>
-      <c r="I116" s="5">
+      <c r="I116" s="6">
         <v>2838.726</v>
       </c>
-      <c r="J116" s="5">
+      <c r="J116" s="6">
         <v>4311.642</v>
       </c>
     </row>
@@ -5402,18 +5411,18 @@
       <c r="D117" t="s" s="3">
         <v>234</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" t="s" s="4">
         <v>235</v>
       </c>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="5">
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="6">
         <v>5688.932</v>
       </c>
-      <c r="I117" s="5">
+      <c r="I117" s="6">
         <v>4876.832</v>
       </c>
-      <c r="J117" s="5">
+      <c r="J117" s="6">
         <v>9508.598</v>
       </c>
     </row>
@@ -5428,18 +5437,18 @@
       <c r="D118" t="s" s="3">
         <v>236</v>
       </c>
-      <c r="E118" t="s" s="3">
+      <c r="E118" t="s" s="4">
         <v>237</v>
       </c>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="5">
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="6">
         <v>4932.644</v>
       </c>
-      <c r="I118" s="5">
+      <c r="I118" s="6">
         <v>4642.779</v>
       </c>
-      <c r="J118" s="5">
+      <c r="J118" s="6">
         <v>7149.968</v>
       </c>
     </row>
@@ -5454,18 +5463,18 @@
       <c r="D119" t="s" s="3">
         <v>238</v>
       </c>
-      <c r="E119" t="s" s="3">
+      <c r="E119" t="s" s="4">
         <v>239</v>
       </c>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="5">
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="6">
         <v>3552.924</v>
       </c>
-      <c r="I119" s="5">
+      <c r="I119" s="6">
         <v>2166.685</v>
       </c>
-      <c r="J119" s="5">
+      <c r="J119" s="6">
         <v>3846.572</v>
       </c>
     </row>
@@ -5480,18 +5489,18 @@
       <c r="D120" t="s" s="3">
         <v>240</v>
       </c>
-      <c r="E120" t="s" s="3">
+      <c r="E120" t="s" s="4">
         <v>241</v>
       </c>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="5">
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="6">
         <v>5568.459</v>
       </c>
-      <c r="I120" s="5">
+      <c r="I120" s="6">
         <v>4236.496</v>
       </c>
-      <c r="J120" s="5">
+      <c r="J120" s="6">
         <v>8182.384</v>
       </c>
     </row>
@@ -5506,18 +5515,18 @@
       <c r="D121" t="s" s="3">
         <v>242</v>
       </c>
-      <c r="E121" t="s" s="3">
+      <c r="E121" t="s" s="4">
         <v>243</v>
       </c>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="5">
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="6">
         <v>4972.508</v>
       </c>
-      <c r="I121" s="5">
+      <c r="I121" s="6">
         <v>2647.877</v>
       </c>
-      <c r="J121" s="5">
+      <c r="J121" s="6">
         <v>7728.79</v>
       </c>
     </row>
@@ -5532,18 +5541,18 @@
       <c r="D122" t="s" s="3">
         <v>244</v>
       </c>
-      <c r="E122" t="s" s="3">
+      <c r="E122" t="s" s="4">
         <v>245</v>
       </c>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="5">
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="6">
         <v>3053.474</v>
       </c>
-      <c r="I122" s="5">
+      <c r="I122" s="6">
         <v>1861.082</v>
       </c>
-      <c r="J122" s="5">
+      <c r="J122" s="6">
         <v>3598.09</v>
       </c>
     </row>
@@ -5558,18 +5567,18 @@
       <c r="D123" t="s" s="3">
         <v>246</v>
       </c>
-      <c r="E123" t="s" s="3">
+      <c r="E123" t="s" s="4">
         <v>247</v>
       </c>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="5">
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="6">
         <v>5658.362</v>
       </c>
-      <c r="I123" s="5">
+      <c r="I123" s="6">
         <v>4436.5</v>
       </c>
-      <c r="J123" s="5">
+      <c r="J123" s="6">
         <v>8173.897</v>
       </c>
     </row>
@@ -5584,18 +5593,18 @@
       <c r="D124" t="s" s="3">
         <v>248</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="4">
         <v>249</v>
       </c>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="5">
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="6">
         <v>2837.562</v>
       </c>
-      <c r="I124" s="5">
+      <c r="I124" s="6">
         <v>2196.691</v>
       </c>
-      <c r="J124" s="5">
+      <c r="J124" s="6">
         <v>3781.701</v>
       </c>
     </row>
@@ -5610,18 +5619,18 @@
       <c r="D125" t="s" s="3">
         <v>250</v>
       </c>
-      <c r="E125" t="s" s="3">
+      <c r="E125" t="s" s="4">
         <v>251</v>
       </c>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="5">
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="6">
         <v>6987.453</v>
       </c>
-      <c r="I125" s="5">
+      <c r="I125" s="6">
         <v>5306.874</v>
       </c>
-      <c r="J125" s="5">
+      <c r="J125" s="6">
         <v>8454.407999999999</v>
       </c>
     </row>
@@ -5636,18 +5645,18 @@
       <c r="D126" t="s" s="3">
         <v>252</v>
       </c>
-      <c r="E126" t="s" s="3">
+      <c r="E126" t="s" s="4">
         <v>253</v>
       </c>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="5">
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="6">
         <v>13796.874</v>
       </c>
-      <c r="I126" s="5">
+      <c r="I126" s="6">
         <v>9569.904</v>
       </c>
-      <c r="J126" s="5">
+      <c r="J126" s="6">
         <v>18088.345</v>
       </c>
     </row>
@@ -5662,18 +5671,18 @@
       <c r="D127" t="s" s="3">
         <v>254</v>
       </c>
-      <c r="E127" t="s" s="3">
+      <c r="E127" t="s" s="4">
         <v>255</v>
       </c>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="5">
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="6">
         <v>24867.219</v>
       </c>
-      <c r="I127" s="5">
+      <c r="I127" s="6">
         <v>23796.8</v>
       </c>
-      <c r="J127" s="5">
+      <c r="J127" s="6">
         <v>33365.219</v>
       </c>
     </row>
@@ -5688,18 +5697,18 @@
       <c r="D128" t="s" s="3">
         <v>256</v>
       </c>
-      <c r="E128" t="s" s="3">
+      <c r="E128" t="s" s="4">
         <v>257</v>
       </c>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="5">
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="6">
         <v>6064.763</v>
       </c>
-      <c r="I128" s="5">
+      <c r="I128" s="6">
         <v>5722.808</v>
       </c>
-      <c r="J128" s="5">
+      <c r="J128" s="6">
         <v>8363.324000000001</v>
       </c>
     </row>
@@ -5714,18 +5723,18 @@
       <c r="D129" t="s" s="3">
         <v>258</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" t="s" s="4">
         <v>259</v>
       </c>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="5">
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="6">
         <v>4002.49</v>
       </c>
-      <c r="I129" s="5">
+      <c r="I129" s="6">
         <v>2767.565</v>
       </c>
-      <c r="J129" s="5">
+      <c r="J129" s="6">
         <v>4457.927</v>
       </c>
     </row>
@@ -5740,18 +5749,18 @@
       <c r="D130" t="s" s="3">
         <v>260</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="4">
         <v>261</v>
       </c>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="5">
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="6">
         <v>5219.023</v>
       </c>
-      <c r="I130" s="5">
+      <c r="I130" s="6">
         <v>4173.658</v>
       </c>
-      <c r="J130" s="5">
+      <c r="J130" s="6">
         <v>7006.469</v>
       </c>
     </row>
@@ -5766,18 +5775,18 @@
       <c r="D131" t="s" s="3">
         <v>262</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" t="s" s="4">
         <v>263</v>
       </c>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="5">
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="6">
         <v>4310.579</v>
       </c>
-      <c r="I131" s="5">
+      <c r="I131" s="6">
         <v>3539.883</v>
       </c>
-      <c r="J131" s="5">
+      <c r="J131" s="6">
         <v>5345.433</v>
       </c>
     </row>
@@ -5792,18 +5801,18 @@
       <c r="D132" t="s" s="3">
         <v>264</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" t="s" s="4">
         <v>265</v>
       </c>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="5">
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="6">
         <v>6944.909</v>
       </c>
-      <c r="I132" s="5">
+      <c r="I132" s="6">
         <v>5422.134</v>
       </c>
-      <c r="J132" s="5">
+      <c r="J132" s="6">
         <v>8170.304</v>
       </c>
     </row>
@@ -5818,44 +5827,44 @@
       <c r="D133" t="s" s="3">
         <v>266</v>
       </c>
-      <c r="E133" t="s" s="3">
+      <c r="E133" t="s" s="4">
         <v>267</v>
       </c>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="5">
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="6">
         <v>6503.641</v>
       </c>
-      <c r="I133" s="5">
+      <c r="I133" s="6">
         <v>2616.735</v>
       </c>
-      <c r="J133" s="5">
+      <c r="J133" s="6">
         <v>7730.821</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
-      <c r="A134" s="6"/>
-      <c r="B134" t="s" s="7">
-        <v>0</v>
-      </c>
-      <c r="C134" t="s" s="7">
-        <v>1</v>
-      </c>
-      <c r="D134" t="s" s="7">
+      <c r="A134" s="7"/>
+      <c r="B134" t="s" s="8">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s" s="8">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s" s="8">
         <v>268</v>
       </c>
-      <c r="E134" t="s" s="18">
+      <c r="E134" t="s" s="20">
         <v>269</v>
       </c>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="10">
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="11">
         <v>3257.682</v>
       </c>
-      <c r="I134" s="11">
+      <c r="I134" s="12">
         <v>3255.042</v>
       </c>
-      <c r="J134" s="12">
+      <c r="J134" s="13">
         <v>5258.876</v>
       </c>
     </row>
@@ -5870,18 +5879,18 @@
       <c r="D135" t="s" s="3">
         <v>270</v>
       </c>
-      <c r="E135" t="s" s="22">
+      <c r="E135" t="s" s="25">
         <v>271</v>
       </c>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="23">
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="26">
         <v>2499.813</v>
       </c>
-      <c r="I135" s="23">
+      <c r="I135" s="26">
         <v>1968.133</v>
       </c>
-      <c r="J135" s="23">
+      <c r="J135" s="26">
         <v>2783.519</v>
       </c>
     </row>
@@ -5893,21 +5902,21 @@
       <c r="C136" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D136" t="s" s="24">
+      <c r="D136" t="s" s="27">
         <v>272</v>
       </c>
-      <c r="E136" t="s" s="25">
+      <c r="E136" t="s" s="28">
         <v>273</v>
       </c>
-      <c r="F136" s="26"/>
-      <c r="G136" s="27"/>
-      <c r="H136" s="28">
+      <c r="F136" s="29"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="31">
         <v>3712.381</v>
       </c>
-      <c r="I136" s="28">
+      <c r="I136" s="31">
         <v>3195.858</v>
       </c>
-      <c r="J136" s="28">
+      <c r="J136" s="31">
         <v>5047.597</v>
       </c>
     </row>
@@ -5922,44 +5931,44 @@
       <c r="D137" t="s" s="3">
         <v>274</v>
       </c>
-      <c r="E137" t="s" s="29">
+      <c r="E137" t="s" s="32">
         <v>275</v>
       </c>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="30">
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="33">
         <v>3697.647</v>
       </c>
-      <c r="I137" s="30">
+      <c r="I137" s="33">
         <v>4350.293</v>
       </c>
-      <c r="J137" s="30">
+      <c r="J137" s="33">
         <v>4633.315</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
-      <c r="A138" s="6"/>
-      <c r="B138" t="s" s="7">
-        <v>0</v>
-      </c>
-      <c r="C138" t="s" s="7">
-        <v>1</v>
-      </c>
-      <c r="D138" t="s" s="7">
+      <c r="A138" s="7"/>
+      <c r="B138" t="s" s="8">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s" s="8">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s" s="8">
         <v>276</v>
       </c>
-      <c r="E138" t="s" s="18">
+      <c r="E138" t="s" s="20">
         <v>277</v>
       </c>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="10">
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="11">
         <v>3662.633</v>
       </c>
-      <c r="I138" s="11">
+      <c r="I138" s="12">
         <v>2617.61</v>
       </c>
-      <c r="J138" s="12">
+      <c r="J138" s="13">
         <v>5022</v>
       </c>
     </row>
@@ -5974,18 +5983,18 @@
       <c r="D139" t="s" s="3">
         <v>278</v>
       </c>
-      <c r="E139" t="s" s="3">
+      <c r="E139" t="s" s="4">
         <v>279</v>
       </c>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="5">
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="6">
         <v>5742.229</v>
       </c>
-      <c r="I139" s="5">
+      <c r="I139" s="6">
         <v>3023.433</v>
       </c>
-      <c r="J139" s="5">
+      <c r="J139" s="6">
         <v>6884.705</v>
       </c>
     </row>
@@ -6000,44 +6009,44 @@
       <c r="D140" t="s" s="3">
         <v>280</v>
       </c>
-      <c r="E140" t="s" s="3">
+      <c r="E140" t="s" s="4">
         <v>281</v>
       </c>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="5">
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="6">
         <v>2478.153</v>
       </c>
-      <c r="I140" s="5">
+      <c r="I140" s="6">
         <v>1713.435</v>
       </c>
-      <c r="J140" s="5">
+      <c r="J140" s="6">
         <v>3501.701</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
-      <c r="A141" s="6"/>
-      <c r="B141" t="s" s="7">
-        <v>0</v>
-      </c>
-      <c r="C141" t="s" s="7">
-        <v>1</v>
-      </c>
-      <c r="D141" t="s" s="7">
+      <c r="A141" s="7"/>
+      <c r="B141" t="s" s="8">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s" s="8">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s" s="8">
         <v>282</v>
       </c>
-      <c r="E141" t="s" s="18">
+      <c r="E141" t="s" s="20">
         <v>283</v>
       </c>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="10">
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="11">
         <v>3534</v>
       </c>
-      <c r="I141" s="11">
+      <c r="I141" s="12">
         <v>3400</v>
       </c>
-      <c r="J141" s="12">
+      <c r="J141" s="13">
         <v>5022</v>
       </c>
     </row>
@@ -6052,18 +6061,18 @@
       <c r="D142" t="s" s="3">
         <v>284</v>
       </c>
-      <c r="E142" t="s" s="3">
+      <c r="E142" t="s" s="4">
         <v>285</v>
       </c>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="5">
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="6">
         <v>6506.05</v>
       </c>
-      <c r="I142" s="5">
+      <c r="I142" s="6">
         <v>6975.071</v>
       </c>
-      <c r="J142" s="5">
+      <c r="J142" s="6">
         <v>9209.695</v>
       </c>
     </row>
@@ -6078,18 +6087,18 @@
       <c r="D143" t="s" s="3">
         <v>286</v>
       </c>
-      <c r="E143" t="s" s="3">
+      <c r="E143" t="s" s="4">
         <v>287</v>
       </c>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="5">
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="6">
         <v>3348.586</v>
       </c>
-      <c r="I143" s="5">
+      <c r="I143" s="6">
         <v>2406.613</v>
       </c>
-      <c r="J143" s="5">
+      <c r="J143" s="6">
         <v>4668.319</v>
       </c>
     </row>
@@ -6104,18 +6113,18 @@
       <c r="D144" t="s" s="3">
         <v>288</v>
       </c>
-      <c r="E144" t="s" s="3">
+      <c r="E144" t="s" s="4">
         <v>289</v>
       </c>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="5">
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="6">
         <v>6339.453</v>
       </c>
-      <c r="I144" s="5">
+      <c r="I144" s="6">
         <v>5730.031</v>
       </c>
-      <c r="J144" s="5">
+      <c r="J144" s="6">
         <v>7368.051</v>
       </c>
     </row>
@@ -6130,18 +6139,18 @@
       <c r="D145" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="4">
         <v>291</v>
       </c>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="5">
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="6">
         <v>5437.56</v>
       </c>
-      <c r="I145" s="5">
+      <c r="I145" s="6">
         <v>4352.183</v>
       </c>
-      <c r="J145" s="5">
+      <c r="J145" s="6">
         <v>6970.03</v>
       </c>
     </row>
@@ -6156,18 +6165,18 @@
       <c r="D146" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="E146" t="s" s="3">
+      <c r="E146" t="s" s="4">
         <v>292</v>
       </c>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="5">
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="6">
         <v>6193.386</v>
       </c>
-      <c r="I146" s="5">
+      <c r="I146" s="6">
         <v>5254.152</v>
       </c>
-      <c r="J146" s="5">
+      <c r="J146" s="6">
         <v>7999.406</v>
       </c>
     </row>
@@ -6182,18 +6191,18 @@
       <c r="D147" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="E147" t="s" s="3">
+      <c r="E147" t="s" s="4">
         <v>293</v>
       </c>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="5">
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="6">
         <v>4936.607</v>
       </c>
-      <c r="I147" s="5">
+      <c r="I147" s="6">
         <v>5054.836</v>
       </c>
-      <c r="J147" s="5">
+      <c r="J147" s="6">
         <v>6251.532</v>
       </c>
     </row>
@@ -6208,18 +6217,18 @@
       <c r="D148" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="4">
         <v>294</v>
       </c>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="5">
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="6">
         <v>98340.259000000005</v>
       </c>
-      <c r="I148" s="5">
+      <c r="I148" s="6">
         <v>116797.97</v>
       </c>
-      <c r="J148" s="5">
+      <c r="J148" s="6">
         <v>119710.681</v>
       </c>
     </row>
@@ -6234,18 +6243,18 @@
       <c r="D149" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="E149" t="s" s="3">
+      <c r="E149" t="s" s="4">
         <v>295</v>
       </c>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="5">
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="6">
         <v>129541.121</v>
       </c>
-      <c r="I149" s="5">
+      <c r="I149" s="6">
         <v>3.087</v>
       </c>
-      <c r="J149" s="5">
+      <c r="J149" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6260,18 +6269,18 @@
       <c r="D150" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="3">
+      <c r="E150" t="s" s="4">
         <v>296</v>
       </c>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="5">
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="6">
         <v>53872.248</v>
       </c>
-      <c r="I150" s="5">
+      <c r="I150" s="6">
         <v>2.081</v>
       </c>
-      <c r="J150" s="5">
+      <c r="J150" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6286,18 +6295,18 @@
       <c r="D151" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="E151" t="s" s="3">
+      <c r="E151" t="s" s="4">
         <v>297</v>
       </c>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="5">
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="6">
         <v>8074.077</v>
       </c>
-      <c r="I151" s="5">
-        <v>0</v>
-      </c>
-      <c r="J151" s="5">
+      <c r="I151" s="6">
+        <v>0</v>
+      </c>
+      <c r="J151" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6312,18 +6321,18 @@
       <c r="D152" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="E152" t="s" s="3">
+      <c r="E152" t="s" s="4">
         <v>298</v>
       </c>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="5">
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="6">
         <v>20223.55</v>
       </c>
-      <c r="I152" s="5">
+      <c r="I152" s="6">
         <v>2.026</v>
       </c>
-      <c r="J152" s="5">
+      <c r="J152" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6338,18 +6347,18 @@
       <c r="D153" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="E153" t="s" s="3">
+      <c r="E153" t="s" s="4">
         <v>299</v>
       </c>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="5">
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="6">
         <v>58972.248</v>
       </c>
-      <c r="I153" s="5">
-        <v>0</v>
-      </c>
-      <c r="J153" s="5">
+      <c r="I153" s="6">
+        <v>0</v>
+      </c>
+      <c r="J153" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6364,18 +6373,18 @@
       <c r="D154" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="4">
         <v>300</v>
       </c>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="5">
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="6">
         <v>41093.599</v>
       </c>
-      <c r="I154" s="5">
+      <c r="I154" s="6">
         <v>2.919</v>
       </c>
-      <c r="J154" s="5">
+      <c r="J154" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6390,18 +6399,18 @@
       <c r="D155" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="E155" t="s" s="3">
+      <c r="E155" t="s" s="4">
         <v>301</v>
       </c>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="5">
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="6">
         <v>16934.628</v>
       </c>
-      <c r="I155" s="5">
+      <c r="I155" s="6">
         <v>2.919</v>
       </c>
-      <c r="J155" s="5">
+      <c r="J155" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6416,18 +6425,18 @@
       <c r="D156" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="E156" t="s" s="3">
+      <c r="E156" t="s" s="4">
         <v>302</v>
       </c>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="5">
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="6">
         <v>37724.504</v>
       </c>
-      <c r="I156" s="5">
+      <c r="I156" s="6">
         <v>2.915</v>
       </c>
-      <c r="J156" s="5">
+      <c r="J156" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6442,18 +6451,18 @@
       <c r="D157" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="E157" t="s" s="3">
+      <c r="E157" t="s" s="4">
         <v>303</v>
       </c>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="5">
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="6">
         <v>3540.872</v>
       </c>
-      <c r="I157" s="5">
+      <c r="I157" s="6">
         <v>4344.326</v>
       </c>
-      <c r="J157" s="5">
+      <c r="J157" s="6">
         <v>4518.606</v>
       </c>
     </row>
@@ -6468,18 +6477,18 @@
       <c r="D158" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="E158" t="s" s="3">
+      <c r="E158" t="s" s="4">
         <v>304</v>
       </c>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="5">
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="6">
         <v>1679.748</v>
       </c>
-      <c r="I158" s="5">
+      <c r="I158" s="6">
         <v>1777.557</v>
       </c>
-      <c r="J158" s="5">
+      <c r="J158" s="6">
         <v>2193.703</v>
       </c>
     </row>
@@ -6494,18 +6503,18 @@
       <c r="D159" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="E159" t="s" s="3">
+      <c r="E159" t="s" s="4">
         <v>305</v>
       </c>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="5">
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="6">
         <v>4057.497</v>
       </c>
-      <c r="I159" s="5">
+      <c r="I159" s="6">
         <v>4289.081</v>
       </c>
-      <c r="J159" s="5">
+      <c r="J159" s="6">
         <v>5220.465</v>
       </c>
     </row>
@@ -6520,18 +6529,18 @@
       <c r="D160" t="s" s="3">
         <v>32</v>
       </c>
-      <c r="E160" t="s" s="3">
+      <c r="E160" t="s" s="4">
         <v>306</v>
       </c>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="5">
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="6">
         <v>3663.718</v>
       </c>
-      <c r="I160" s="5">
+      <c r="I160" s="6">
         <v>4149.314</v>
       </c>
-      <c r="J160" s="5">
+      <c r="J160" s="6">
         <v>4711.233</v>
       </c>
     </row>
@@ -6546,18 +6555,18 @@
       <c r="D161" t="s" s="3">
         <v>34</v>
       </c>
-      <c r="E161" t="s" s="3">
+      <c r="E161" t="s" s="4">
         <v>307</v>
       </c>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="5">
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="6">
         <v>2609.976</v>
       </c>
-      <c r="I161" s="5">
+      <c r="I161" s="6">
         <v>3025.529</v>
       </c>
-      <c r="J161" s="5">
+      <c r="J161" s="6">
         <v>3286.258</v>
       </c>
     </row>
